--- a/data/trans_orig/IP07C31_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C31_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21CC56A4-4031-4C98-8DCE-3010F6D6FADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F952307-36AF-4F9D-BE30-AD84B264B7CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{C16443EF-EFFA-4CD1-BA1A-10221C6EBE1D}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{A4C5C3E9-EE6A-43DF-9F08-609BE5942059}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -77,12 +77,69 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
-    <t>87,59%</t>
-  </si>
-  <si>
     <t>82,58%</t>
   </si>
   <si>
@@ -107,9 +164,6 @@
     <t>90,36%</t>
   </si>
   <si>
-    <t>12,41%</t>
-  </si>
-  <si>
     <t>8,72%</t>
   </si>
   <si>
@@ -132,60 +186,6 @@
   </si>
   <si>
     <t>16,24%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
   </si>
   <si>
     <t>88,95%</t>
@@ -631,7 +631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{417C8032-9242-4723-A2C2-C61DF83DA504}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A8CC80D-FB8E-4F09-9E15-648C3707A4DD}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -886,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>207</v>
+        <v>45</v>
       </c>
       <c r="D7" s="7">
-        <v>180718</v>
+        <v>38236</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>14</v>
@@ -901,10 +901,10 @@
         <v>16</v>
       </c>
       <c r="H7" s="7">
-        <v>178</v>
+        <v>41</v>
       </c>
       <c r="I7" s="7">
-        <v>137454</v>
+        <v>31366</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>17</v>
@@ -916,10 +916,10 @@
         <v>19</v>
       </c>
       <c r="M7" s="7">
-        <v>385</v>
+        <v>86</v>
       </c>
       <c r="N7" s="7">
-        <v>318172</v>
+        <v>69602</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>20</v>
@@ -937,10 +937,10 @@
         <v>12</v>
       </c>
       <c r="C8" s="7">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>25613</v>
+        <v>1580</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>23</v>
@@ -952,10 +952,10 @@
         <v>25</v>
       </c>
       <c r="H8" s="7">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="I8" s="7">
-        <v>19885</v>
+        <v>1822</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>26</v>
@@ -967,10 +967,10 @@
         <v>28</v>
       </c>
       <c r="M8" s="7">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="N8" s="7">
-        <v>45498</v>
+        <v>3402</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>29</v>
@@ -988,10 +988,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>238</v>
+        <v>47</v>
       </c>
       <c r="D9" s="7">
-        <v>206331</v>
+        <v>39816</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>32</v>
@@ -1003,10 +1003,10 @@
         <v>32</v>
       </c>
       <c r="H9" s="7">
-        <v>207</v>
+        <v>44</v>
       </c>
       <c r="I9" s="7">
-        <v>157339</v>
+        <v>33188</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>32</v>
@@ -1018,10 +1018,10 @@
         <v>32</v>
       </c>
       <c r="M9" s="7">
-        <v>445</v>
+        <v>91</v>
       </c>
       <c r="N9" s="7">
-        <v>363670</v>
+        <v>73004</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>32</v>
@@ -1041,25 +1041,25 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>45</v>
+        <v>207</v>
       </c>
       <c r="D10" s="7">
-        <v>38236</v>
+        <v>180718</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H10" s="7">
-        <v>41</v>
+        <v>178</v>
       </c>
       <c r="I10" s="7">
-        <v>31366</v>
+        <v>137454</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>36</v>
@@ -1071,10 +1071,10 @@
         <v>38</v>
       </c>
       <c r="M10" s="7">
-        <v>86</v>
+        <v>385</v>
       </c>
       <c r="N10" s="7">
-        <v>69602</v>
+        <v>318172</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>39</v>
@@ -1092,25 +1092,25 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="D11" s="7">
-        <v>1580</v>
+        <v>25613</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="H11" s="7">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="I11" s="7">
-        <v>1822</v>
+        <v>19885</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>44</v>
@@ -1122,10 +1122,10 @@
         <v>46</v>
       </c>
       <c r="M11" s="7">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="N11" s="7">
-        <v>3402</v>
+        <v>45498</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>47</v>
@@ -1143,10 +1143,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>47</v>
+        <v>238</v>
       </c>
       <c r="D12" s="7">
-        <v>39816</v>
+        <v>206331</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>32</v>
@@ -1158,10 +1158,10 @@
         <v>32</v>
       </c>
       <c r="H12" s="7">
-        <v>44</v>
+        <v>207</v>
       </c>
       <c r="I12" s="7">
-        <v>33188</v>
+        <v>157339</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>32</v>
@@ -1173,10 +1173,10 @@
         <v>32</v>
       </c>
       <c r="M12" s="7">
-        <v>91</v>
+        <v>445</v>
       </c>
       <c r="N12" s="7">
-        <v>73004</v>
+        <v>363670</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>32</v>

--- a/data/trans_orig/IP07C31_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C31_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F952307-36AF-4F9D-BE30-AD84B264B7CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA83672D-33A4-4A19-B46B-C436A22E00F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{A4C5C3E9-EE6A-43DF-9F08-609BE5942059}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DD887C8F-3F99-4572-93D8-66144E0856BF}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="72">
   <si>
     <t>Menores según frecuencia de situaciones de cyberbulling fuera de tu colegio en 2023 (Tasa respuesta: 27,92%)</t>
   </si>
@@ -65,181 +65,193 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>—%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
   </si>
   <si>
     <t>88,95%</t>
   </si>
   <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
   </si>
   <si>
     <t>88,61%</t>
   </si>
   <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
   </si>
   <si>
     <t>88,8%</t>
   </si>
   <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -250,7 +262,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -346,39 +358,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -430,7 +442,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -541,13 +553,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -556,6 +561,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -620,19 +632,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A8CC80D-FB8E-4F09-9E15-648C3707A4DD}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51441A7B-1B4E-42EB-8BEA-832F263AA407}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -886,49 +918,43 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>45</v>
-      </c>
-      <c r="D7" s="7">
-        <v>38236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>41</v>
-      </c>
-      <c r="I7" s="7">
-        <v>31366</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
-        <v>86</v>
-      </c>
-      <c r="N7" s="7">
-        <v>69602</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -937,49 +963,43 @@
         <v>12</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1580</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>3</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1822</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="M8" s="7">
-        <v>5</v>
-      </c>
-      <c r="N8" s="7">
-        <v>3402</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N8" s="7"/>
       <c r="O8" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -988,102 +1008,96 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>47</v>
-      </c>
-      <c r="D9" s="7">
-        <v>39816</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>44</v>
-      </c>
-      <c r="I9" s="7">
-        <v>33188</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" s="7"/>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="M9" s="7">
-        <v>91</v>
-      </c>
-      <c r="N9" s="7">
-        <v>73004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N9" s="7"/>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>207</v>
+        <v>12</v>
       </c>
       <c r="D10" s="7">
-        <v>180718</v>
+        <v>8867</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="H10" s="7">
-        <v>178</v>
+        <v>9</v>
       </c>
       <c r="I10" s="7">
-        <v>137454</v>
+        <v>5620</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="M10" s="7">
-        <v>385</v>
+        <v>21</v>
       </c>
       <c r="N10" s="7">
-        <v>318172</v>
+        <v>14487</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1092,49 +1106,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
+        <v>99</v>
+      </c>
+      <c r="D11" s="7">
+        <v>83785</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="7">
+        <v>83</v>
+      </c>
+      <c r="I11" s="7">
+        <v>64023</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" s="7">
+        <v>182</v>
+      </c>
+      <c r="N11" s="7">
+        <v>147808</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="7">
-        <v>25613</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="7">
-        <v>29</v>
-      </c>
-      <c r="I11" s="7">
-        <v>19885</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M11" s="7">
-        <v>60</v>
-      </c>
-      <c r="N11" s="7">
-        <v>45498</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1143,102 +1157,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>238</v>
+        <v>111</v>
       </c>
       <c r="D12" s="7">
-        <v>206331</v>
+        <v>92652</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H12" s="7">
-        <v>207</v>
+        <v>92</v>
       </c>
       <c r="I12" s="7">
-        <v>157339</v>
+        <v>69643</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M12" s="7">
-        <v>445</v>
+        <v>203</v>
       </c>
       <c r="N12" s="7">
-        <v>363670</v>
+        <v>162295</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>252</v>
+        <v>21</v>
       </c>
       <c r="D13" s="7">
-        <v>218954</v>
+        <v>18326</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="H13" s="7">
-        <v>219</v>
+        <v>23</v>
       </c>
       <c r="I13" s="7">
-        <v>168820</v>
+        <v>16087</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M13" s="7">
-        <v>471</v>
+        <v>44</v>
       </c>
       <c r="N13" s="7">
-        <v>387774</v>
+        <v>34413</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1247,49 +1261,49 @@
         <v>12</v>
       </c>
       <c r="C14" s="7">
-        <v>33</v>
+        <v>153</v>
       </c>
       <c r="D14" s="7">
-        <v>27193</v>
+        <v>135169</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="H14" s="7">
-        <v>32</v>
+        <v>136</v>
       </c>
       <c r="I14" s="7">
-        <v>21707</v>
+        <v>104798</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="M14" s="7">
-        <v>65</v>
+        <v>289</v>
       </c>
       <c r="N14" s="7">
-        <v>48900</v>
+        <v>239966</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1298,55 +1312,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>174</v>
+      </c>
+      <c r="D15" s="7">
+        <v>153495</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="7">
+        <v>159</v>
+      </c>
+      <c r="I15" s="7">
+        <v>120885</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M15" s="7">
+        <v>333</v>
+      </c>
+      <c r="N15" s="7">
+        <v>274379</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>33</v>
+      </c>
+      <c r="D16" s="7">
+        <v>27193</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="7">
+        <v>32</v>
+      </c>
+      <c r="I16" s="7">
+        <v>21707</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M16" s="7">
+        <v>65</v>
+      </c>
+      <c r="N16" s="7">
+        <v>48900</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="7">
+        <v>252</v>
+      </c>
+      <c r="D17" s="7">
+        <v>218954</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" s="7">
+        <v>219</v>
+      </c>
+      <c r="I17" s="7">
+        <v>168820</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M17" s="7">
+        <v>471</v>
+      </c>
+      <c r="N17" s="7">
+        <v>387774</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>285</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>246147</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="7">
         <v>251</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>190527</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M18" s="7">
         <v>536</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>436674</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>32</v>
+      <c r="O18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP07C31_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C31_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA83672D-33A4-4A19-B46B-C436A22E00F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{333992FC-10DA-4ECE-B7A3-BB2979FDC20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DD887C8F-3F99-4572-93D8-66144E0856BF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B5ADBA2A-9564-466E-A5EF-725650ABD795}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -86,55 +86,55 @@
     <t>9,57%</t>
   </si>
   <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
   </si>
   <si>
     <t>8,07%</t>
   </si>
   <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
   </si>
   <si>
     <t>8,93%</t>
   </si>
   <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
   </si>
   <si>
     <t>90,43%</t>
   </si>
   <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
   </si>
   <si>
     <t>91,93%</t>
   </si>
   <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
   </si>
   <si>
     <t>91,07%</t>
   </si>
   <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
   </si>
   <si>
     <t>100%</t>
@@ -146,109 +146,109 @@
     <t>11,94%</t>
   </si>
   <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
   </si>
   <si>
     <t>13,31%</t>
   </si>
   <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
   </si>
   <si>
     <t>12,54%</t>
   </si>
   <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
   </si>
   <si>
     <t>88,06%</t>
   </si>
   <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
   </si>
   <si>
     <t>86,69%</t>
   </si>
   <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
   </si>
   <si>
     <t>87,46%</t>
   </si>
   <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
   </si>
   <si>
     <t>11,05%</t>
   </si>
   <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
   </si>
   <si>
     <t>11,39%</t>
   </si>
   <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
   </si>
   <si>
     <t>11,2%</t>
   </si>
   <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
   </si>
   <si>
     <t>88,95%</t>
   </si>
   <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
   </si>
   <si>
     <t>88,61%</t>
   </si>
   <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
   </si>
   <si>
     <t>88,8%</t>
   </si>
   <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -663,7 +663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51441A7B-1B4E-42EB-8BEA-832F263AA407}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{891ABF83-A938-404F-A2CC-DF6C9915CAFB}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/IP07C31_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C31_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{333992FC-10DA-4ECE-B7A3-BB2979FDC20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B86867FE-CE53-4F03-A5A7-86035C4DD122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B5ADBA2A-9564-466E-A5EF-725650ABD795}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C850C906-EB42-4F4E-8240-63C17CEA9534}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="72">
-  <si>
-    <t>Menores según frecuencia de situaciones de cyberbulling fuera de tu colegio en 2023 (Tasa respuesta: 27,92%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="150">
+  <si>
+    <t>Menores según si se han producido situaciones de cyberbulling fuera de su colegio en 2023 (Tasa respuesta: 30,05%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,13 +68,22 @@
     <t>0-2</t>
   </si>
   <si>
-    <t>Sí</t>
+    <t>Muchísimo</t>
   </si>
   <si>
     <t>—%</t>
   </si>
   <si>
-    <t>No</t>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>Moderadamente</t>
+  </si>
+  <si>
+    <t>Un Poco</t>
+  </si>
+  <si>
+    <t>Nada</t>
   </si>
   <si>
     <t>3-7</t>
@@ -83,58 +92,136 @@
     <t>8-11</t>
   </si>
   <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
   </si>
   <si>
     <t>100%</t>
@@ -143,112 +230,259 @@
     <t>12-15</t>
   </si>
   <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -663,8 +897,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{891ABF83-A938-404F-A2CC-DF6C9915CAFB}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{814ED8B1-4C26-49ED-B39A-8F3C7D7A2EA5}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -868,7 +1102,7 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -911,11 +1145,9 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -960,7 +1192,7 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -1049,55 +1281,49 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>12</v>
-      </c>
-      <c r="D10" s="7">
-        <v>8867</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>9</v>
-      </c>
-      <c r="I10" s="7">
-        <v>5620</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>21</v>
-      </c>
-      <c r="N10" s="7">
-        <v>14487</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1106,204 +1332,178 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>99</v>
-      </c>
-      <c r="D11" s="7">
-        <v>83785</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>83</v>
-      </c>
-      <c r="I11" s="7">
-        <v>64023</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>182</v>
-      </c>
-      <c r="N11" s="7">
-        <v>147808</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>111</v>
-      </c>
-      <c r="D12" s="7">
-        <v>92652</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>92</v>
-      </c>
-      <c r="I12" s="7">
-        <v>69643</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>203</v>
-      </c>
-      <c r="N12" s="7">
-        <v>162295</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>21</v>
-      </c>
-      <c r="D13" s="7">
-        <v>18326</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>23</v>
-      </c>
-      <c r="I13" s="7">
-        <v>16087</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>44</v>
-      </c>
-      <c r="N13" s="7">
-        <v>34413</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>153</v>
-      </c>
-      <c r="D14" s="7">
-        <v>135169</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>136</v>
-      </c>
-      <c r="I14" s="7">
-        <v>104798</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>289</v>
-      </c>
-      <c r="N14" s="7">
-        <v>239966</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1312,102 +1512,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>174</v>
-      </c>
-      <c r="D15" s="7">
-        <v>153495</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>159</v>
-      </c>
-      <c r="I15" s="7">
-        <v>120885</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>333</v>
-      </c>
-      <c r="N15" s="7">
-        <v>274379</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>27193</v>
+        <v>832</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="I16" s="7">
-        <v>21707</v>
+        <v>3500</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="M16" s="7">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="N16" s="7">
-        <v>48900</v>
+        <v>4332</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1416,118 +1610,887 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>252</v>
+        <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>218954</v>
+        <v>2231</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>219</v>
+        <v>5</v>
       </c>
       <c r="I17" s="7">
-        <v>168820</v>
+        <v>4922</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="M17" s="7">
-        <v>471</v>
+        <v>8</v>
       </c>
       <c r="N17" s="7">
-        <v>387774</v>
+        <v>7153</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="7">
         <v>3</v>
       </c>
-      <c r="C18" s="7">
-        <v>285</v>
-      </c>
       <c r="D18" s="7">
-        <v>246147</v>
+        <v>1917</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>251</v>
+        <v>1</v>
       </c>
       <c r="I18" s="7">
-        <v>190527</v>
+        <v>622</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="M18" s="7">
-        <v>536</v>
+        <v>4</v>
       </c>
       <c r="N18" s="7">
-        <v>436674</v>
+        <v>2539</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="7">
+        <v>16</v>
+      </c>
+      <c r="D19" s="7">
+        <v>10741</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" s="7">
+        <v>20</v>
+      </c>
+      <c r="I19" s="7">
+        <v>17061</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M19" s="7">
+        <v>36</v>
+      </c>
+      <c r="N19" s="7">
+        <v>27802</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="7">
+        <v>72</v>
+      </c>
+      <c r="D20" s="7">
+        <v>52205</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" s="7">
+        <v>88</v>
+      </c>
+      <c r="I20" s="7">
+        <v>73259</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M20" s="7">
+        <v>160</v>
+      </c>
+      <c r="N20" s="7">
+        <v>125464</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="7">
+        <v>95</v>
+      </c>
+      <c r="D21" s="7">
+        <v>67925</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" s="7">
+        <v>119</v>
+      </c>
+      <c r="I21" s="7">
+        <v>99365</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M21" s="7">
+        <v>214</v>
+      </c>
+      <c r="N21" s="7">
+        <v>167290</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="7">
+        <v>6</v>
+      </c>
+      <c r="D22" s="7">
+        <v>4562</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H22" s="7">
+        <v>1</v>
+      </c>
+      <c r="I22" s="7">
+        <v>876</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M22" s="7">
+        <v>7</v>
+      </c>
+      <c r="N22" s="7">
+        <v>5438</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="7">
+        <v>5</v>
+      </c>
+      <c r="D23" s="7">
+        <v>3421</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>71</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H23" s="7">
+        <v>3</v>
+      </c>
+      <c r="I23" s="7">
+        <v>2278</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M23" s="7">
+        <v>8</v>
+      </c>
+      <c r="N23" s="7">
+        <v>5699</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="7">
+        <v>5</v>
+      </c>
+      <c r="D24" s="7">
+        <v>3659</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H24" s="7">
+        <v>4</v>
+      </c>
+      <c r="I24" s="7">
+        <v>3171</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M24" s="7">
+        <v>9</v>
+      </c>
+      <c r="N24" s="7">
+        <v>6830</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="7">
+        <v>22</v>
+      </c>
+      <c r="D25" s="7">
+        <v>41364</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H25" s="7">
+        <v>29</v>
+      </c>
+      <c r="I25" s="7">
+        <v>26531</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M25" s="7">
+        <v>51</v>
+      </c>
+      <c r="N25" s="7">
+        <v>67895</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="7">
+        <v>137</v>
+      </c>
+      <c r="D26" s="7">
+        <v>89540</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H26" s="7">
+        <v>151</v>
+      </c>
+      <c r="I26" s="7">
+        <v>139927</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M26" s="7">
+        <v>288</v>
+      </c>
+      <c r="N26" s="7">
+        <v>229467</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>175</v>
+      </c>
+      <c r="D27" s="7">
+        <v>142547</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H27" s="7">
+        <v>188</v>
+      </c>
+      <c r="I27" s="7">
+        <v>172783</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M27" s="7">
+        <v>363</v>
+      </c>
+      <c r="N27" s="7">
+        <v>315329</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>7</v>
+      </c>
+      <c r="D28" s="7">
+        <v>5394</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H28" s="7">
+        <v>6</v>
+      </c>
+      <c r="I28" s="7">
+        <v>4376</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="M28" s="7">
+        <v>13</v>
+      </c>
+      <c r="N28" s="7">
+        <v>9770</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>8</v>
+      </c>
+      <c r="D29" s="7">
+        <v>5652</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H29" s="7">
+        <v>8</v>
+      </c>
+      <c r="I29" s="7">
+        <v>7200</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="M29" s="7">
+        <v>16</v>
+      </c>
+      <c r="N29" s="7">
+        <v>12852</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>8</v>
+      </c>
+      <c r="D30" s="7">
+        <v>5576</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H30" s="7">
+        <v>5</v>
+      </c>
+      <c r="I30" s="7">
+        <v>3793</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="M30" s="7">
+        <v>13</v>
+      </c>
+      <c r="N30" s="7">
+        <v>9369</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>38</v>
+      </c>
+      <c r="D31" s="7">
+        <v>52104</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H31" s="7">
+        <v>49</v>
+      </c>
+      <c r="I31" s="7">
+        <v>43592</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="M31" s="7">
+        <v>87</v>
+      </c>
+      <c r="N31" s="7">
+        <v>95697</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>209</v>
+      </c>
+      <c r="D32" s="7">
+        <v>141745</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H32" s="7">
+        <v>239</v>
+      </c>
+      <c r="I32" s="7">
+        <v>213186</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="M32" s="7">
+        <v>448</v>
+      </c>
+      <c r="N32" s="7">
+        <v>354931</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
+        <v>270</v>
+      </c>
+      <c r="D33" s="7">
+        <v>210472</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H33" s="7">
+        <v>307</v>
+      </c>
+      <c r="I33" s="7">
+        <v>272147</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M33" s="7">
+        <v>577</v>
+      </c>
+      <c r="N33" s="7">
+        <v>482619</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A10:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
